--- a/medicine/Enfance/SamSam/SamSam.xlsx
+++ b/medicine/Enfance/SamSam/SamSam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">SamSam est une bande dessinée adaptée en série télévisée d'animation 3D française en 91 épisodes de six à huit minutes et un long-métrage créés d'après les personnages de Serge Bloch pour Pomme d'Api (magazine des 3-7 ans du groupe Bayard Presse), adaptée par Alexandre Révérend, Didier Lejeune et réalisé par Tanguy de Kermel assisté par Astrid Scaramus. Elle a été diffusée pour la première fois à partir du 2 juillet 2007 sur France 5 dans Midi les Zouzous, et puis sur TiJi et Gulli.
-Au Québec, elle a été diffusée à partir du 15 septembre 2007 à Télé-Québec[2].
+Au Québec, elle a été diffusée à partir du 15 septembre 2007 à Télé-Québec.
 SamSam a été sélectionné au festival international d'Annecy à deux reprises et a remporté les TV Export Awards en 2009 (programme d'animation français le plus vendu à l'étranger).
 SamSam, le film d'animation coproduit par Folivari et Studiocanal, est sorti sur grand écran le 5 février 2020, également réalisé par Tanguy de Kermel. Il a été en sélection officielle aux festivals d'Annecy, de Gérardmer et de l'Alpe d'Huez et il a remporté le prix du public au festival ANIMA de Bruxelles.
-La troisième saison qui est inspirée du film d’animation est diffusée depuis le 1er novembre 2023 sur france.tv et Okoo, le 5 novembre sur France 4 et le 11 novembre 2023 sur France 5[3].
+La troisième saison qui est inspirée du film d’animation est diffusée depuis le 1er novembre 2023 sur france.tv et Okoo, le 5 novembre sur France 4 et le 11 novembre 2023 sur France 5.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">SamSam, le plus petit des grand héros, vit avec ses parents (super-héros comme lui) sur la Samplanète. Il va à l’école, joue avec les autres enfants, se confie à sa peluche SamNounours, ou part avec lui explorer la galaxie à bord de sa SamSoucoupe. En quête d’autonomie, SamSam va grandir, d’une part en dominant ses inquiétudes qui s’incarnent en autant de monstres subjectifs (Pipiolis et Exitators), et d’autre part, en découvrant le monde et ses dangers objectifs (Marchel 1er, Crocochemar et Barbaféroce). La vie quotidienne d’un enfant transposée dans un univers fantastique et poétique.
 </t>
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Tanguy de Kermel
 Assistante de réalisation : Astrid Scaramus
@@ -582,9 +598,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saisons 1 et 2
-Voix principales
-Téo Echelard puis Max Renaudin : SamSam
+          <t>Saisons 1 et 2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Voix principales</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Téo Echelard puis Max Renaudin : SamSam
 Hervé Rey puis Tom Trouffier : SamNounours
 Claire Bouanich : SuperJulie
 Lewis Weill : Petit Pôa
@@ -593,14 +617,86 @@
 Barbara Delsol : Marie-Agnès
 Frédéric Bouraly : Marchel 1er et Les Pipiolis
 Philippe Spiteri : Crapouille
-Jean-François Kopf : Barbaféroce et Crocochemar
-Voix additionnelles
-David Lesser : Luten
+Jean-François Kopf : Barbaféroce et Crocochemar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SamSam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SamSam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saisons 1 et 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Voix additionnelles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>David Lesser : Luten
 Damien Ferrette : Kiki
 Raphaël Cohen : Leon
-Lucas Lejeune
-Saison 3
-Emmylou Homs : SamSam
+Lucas Lejeune</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SamSam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SamSam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmylou Homs : SamSam
 Isaac Lobé-Lebel : SamSam
 Sébastien Desjours : SamNounours
 Max Brunner : Petit Pôa
@@ -617,70 +713,75 @@
 Magali Rosenzweig : Marie-Agnès, Mamie Pôa et Kasspatte
 Version française
 Direction artistique : Barbara Tissier
- Source et légende : version française (VF) sur RS Doublage[4]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>SamSam</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/SamSam</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saison 1 (2007-2008)
-Saison 2 (2010-2011)
-Saison 3 (2023-2024)
-Une troisième saison a été annoncée comme étant en cours de production le 15 juin 2023[1]. Elle est diffusée à partir du 1er novembre 2023 sur la plateforme de france.tv[5] puis diffusée sur France 4 à partir du 5 novembre 2023 et sur France 5 le 11 novembre 2023.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 3 (2023-2024)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une troisième saison a été annoncée comme étant en cours de production le 15 juin 2023. Elle est diffusée à partir du 1er novembre 2023 sur la plateforme de france.tv puis diffusée sur France 4 à partir du 5 novembre 2023 et sur France 5 le 11 novembre 2023.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>SamSam</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/SamSam</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le personnage de SamSam a été créé par le dessinateur Serge Bloch pour le magazine pour enfants Pomme d'Api. La première apparition de SamSam dans Pomme d'Api date de janvier 2000.
 Dans la samplanète on y voit des lunes, des étoiles, des planètes ou des galaxies et il y a un astre qui, le jour, a l'apparence d'un soleil et, la nuit, celle d'une lune.
